--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H2">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I2">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J2">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.74143131932286</v>
+        <v>1.922400333333333</v>
       </c>
       <c r="N2">
-        <v>1.74143131932286</v>
+        <v>5.767201</v>
       </c>
       <c r="O2">
-        <v>0.003555690904079586</v>
+        <v>0.003737447139494048</v>
       </c>
       <c r="P2">
-        <v>0.003555690904079586</v>
+        <v>0.003737447139494047</v>
       </c>
       <c r="Q2">
-        <v>0.5990291230291324</v>
+        <v>0.7063469136765554</v>
       </c>
       <c r="R2">
-        <v>0.5990291230291324</v>
+        <v>6.357122223088999</v>
       </c>
       <c r="S2">
-        <v>2.373454223103776E-05</v>
+        <v>2.575973241662999E-05</v>
       </c>
       <c r="T2">
-        <v>2.373454223103776E-05</v>
+        <v>2.575973241662998E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H3">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I3">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J3">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>35.0679076944593</v>
+        <v>0.1491063333333333</v>
       </c>
       <c r="N3">
-        <v>35.0679076944593</v>
+        <v>0.447319</v>
       </c>
       <c r="O3">
-        <v>0.071602387662797</v>
+        <v>0.0002898860499211555</v>
       </c>
       <c r="P3">
-        <v>0.071602387662797</v>
+        <v>0.0002898860499211555</v>
       </c>
       <c r="Q3">
-        <v>12.06289203575756</v>
+        <v>0.05478609035455555</v>
       </c>
       <c r="R3">
-        <v>12.06289203575756</v>
+        <v>0.4930748131909999</v>
       </c>
       <c r="S3">
-        <v>0.0004779520885451392</v>
+        <v>1.997991355750304E-06</v>
       </c>
       <c r="T3">
-        <v>0.0004779520885451392</v>
+        <v>1.997991355750304E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H4">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I4">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J4">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.5443959869492</v>
+        <v>41.38050366666666</v>
       </c>
       <c r="N4">
-        <v>60.5443959869492</v>
+        <v>124.141511</v>
       </c>
       <c r="O4">
-        <v>0.1236208145076295</v>
+        <v>0.08045017594833591</v>
       </c>
       <c r="P4">
-        <v>0.1236208145076295</v>
+        <v>0.08045017594833591</v>
       </c>
       <c r="Q4">
-        <v>20.82646385761175</v>
+        <v>15.20442466874211</v>
       </c>
       <c r="R4">
-        <v>20.82646385761175</v>
+        <v>136.839822018679</v>
       </c>
       <c r="S4">
-        <v>0.0008251795562995161</v>
+        <v>0.0005544894490682964</v>
       </c>
       <c r="T4">
-        <v>0.0008251795562995161</v>
+        <v>0.0005544894490682961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H5">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I5">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J5">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>391.480334221702</v>
+        <v>66.18219133333334</v>
       </c>
       <c r="N5">
-        <v>391.480334221702</v>
+        <v>198.546574</v>
       </c>
       <c r="O5">
-        <v>0.7993327374285436</v>
+        <v>0.1286685386988668</v>
       </c>
       <c r="P5">
-        <v>0.7993327374285436</v>
+        <v>0.1286685386988668</v>
       </c>
       <c r="Q5">
-        <v>134.6640081006262</v>
+        <v>24.31730050087622</v>
       </c>
       <c r="R5">
-        <v>134.6640081006262</v>
+        <v>218.855704507886</v>
       </c>
       <c r="S5">
-        <v>0.005335614687818247</v>
+        <v>0.0008868264897440932</v>
       </c>
       <c r="T5">
-        <v>0.005335614687818247</v>
+        <v>0.000886826489744093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H6">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I6">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J6">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.924845795980196</v>
+        <v>403.6231896666666</v>
       </c>
       <c r="N6">
-        <v>0.924845795980196</v>
+        <v>1210.869569</v>
       </c>
       <c r="O6">
-        <v>0.001888369496950197</v>
+        <v>0.7847066552664699</v>
       </c>
       <c r="P6">
-        <v>0.001888369496950197</v>
+        <v>0.7847066552664699</v>
       </c>
       <c r="Q6">
-        <v>0.3181346056866706</v>
+        <v>148.3031340381601</v>
       </c>
       <c r="R6">
-        <v>0.3181346056866706</v>
+        <v>1334.728206343441</v>
       </c>
       <c r="S6">
-        <v>1.260502860969852E-05</v>
+        <v>0.005408460029203088</v>
       </c>
       <c r="T6">
-        <v>1.260502860969852E-05</v>
+        <v>0.005408460029203086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9406491250565</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H7">
-        <v>42.9406491250565</v>
+        <v>1.102289</v>
       </c>
       <c r="I7">
-        <v>0.833266415887348</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J7">
-        <v>0.833266415887348</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.74143131932286</v>
+        <v>1.104487666666667</v>
       </c>
       <c r="N7">
-        <v>1.74143131932286</v>
+        <v>3.313463</v>
       </c>
       <c r="O7">
-        <v>0.003555690904079586</v>
+        <v>0.002147296896912275</v>
       </c>
       <c r="P7">
-        <v>0.003555690904079586</v>
+        <v>0.002147296896912274</v>
       </c>
       <c r="Q7">
-        <v>74.77819125842716</v>
+        <v>0.4058215352007777</v>
       </c>
       <c r="R7">
-        <v>74.77819125842716</v>
+        <v>3.652393816806999</v>
       </c>
       <c r="S7">
-        <v>0.002962837815645641</v>
+        <v>1.479988650515286E-05</v>
       </c>
       <c r="T7">
-        <v>0.002962837815645641</v>
+        <v>1.479988650515285E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H8">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I8">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J8">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.0679076944593</v>
+        <v>1.922400333333333</v>
       </c>
       <c r="N8">
-        <v>35.0679076944593</v>
+        <v>5.767201</v>
       </c>
       <c r="O8">
-        <v>0.071602387662797</v>
+        <v>0.003737447139494048</v>
       </c>
       <c r="P8">
-        <v>0.071602387662797</v>
+        <v>0.003737447139494047</v>
       </c>
       <c r="Q8">
-        <v>1505.838719857646</v>
+        <v>85.05684048517455</v>
       </c>
       <c r="R8">
-        <v>1505.838719857646</v>
+        <v>765.511564366571</v>
       </c>
       <c r="S8">
-        <v>0.05966386493675532</v>
+        <v>0.00310193392039847</v>
       </c>
       <c r="T8">
-        <v>0.05966386493675532</v>
+        <v>0.003101933920398468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H9">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I9">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J9">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>60.5443959869492</v>
+        <v>0.1491063333333333</v>
       </c>
       <c r="N9">
-        <v>60.5443959869492</v>
+        <v>0.447319</v>
       </c>
       <c r="O9">
-        <v>0.1236208145076295</v>
+        <v>0.0002898860499211555</v>
       </c>
       <c r="P9">
-        <v>0.1236208145076295</v>
+        <v>0.0002898860499211555</v>
       </c>
       <c r="Q9">
-        <v>2599.815664564064</v>
+        <v>6.597228157816556</v>
       </c>
       <c r="R9">
-        <v>2599.815664564064</v>
+        <v>59.375053420349</v>
       </c>
       <c r="S9">
-        <v>0.1030090730338471</v>
+        <v>0.0002405940038050907</v>
       </c>
       <c r="T9">
-        <v>0.1030090730338471</v>
+        <v>0.0002405940038050906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H10">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I10">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J10">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>391.480334221702</v>
+        <v>41.38050366666666</v>
       </c>
       <c r="N10">
-        <v>391.480334221702</v>
+        <v>124.141511</v>
       </c>
       <c r="O10">
-        <v>0.7993327374285436</v>
+        <v>0.08045017594833591</v>
       </c>
       <c r="P10">
-        <v>0.7993327374285436</v>
+        <v>0.08045017594833591</v>
       </c>
       <c r="Q10">
-        <v>16810.41967117395</v>
+        <v>1830.88550212062</v>
       </c>
       <c r="R10">
-        <v>16810.41967117395</v>
+        <v>16477.96951908558</v>
       </c>
       <c r="S10">
-        <v>0.6660571252185051</v>
+        <v>0.06677047737722677</v>
       </c>
       <c r="T10">
-        <v>0.6660571252185051</v>
+        <v>0.06677047737722674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H11">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I11">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J11">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.924845795980196</v>
+        <v>66.18219133333334</v>
       </c>
       <c r="N11">
-        <v>0.924845795980196</v>
+        <v>198.546574</v>
       </c>
       <c r="O11">
-        <v>0.001888369496950197</v>
+        <v>0.1286685386988668</v>
       </c>
       <c r="P11">
-        <v>0.001888369496950197</v>
+        <v>0.1286685386988668</v>
       </c>
       <c r="Q11">
-        <v>39.71347881996919</v>
+        <v>2928.239240074328</v>
       </c>
       <c r="R11">
-        <v>39.71347881996919</v>
+        <v>26354.15316066895</v>
       </c>
       <c r="S11">
-        <v>0.001573514882594685</v>
+        <v>0.1067898193022065</v>
       </c>
       <c r="T11">
-        <v>0.001573514882594685</v>
+        <v>0.1067898193022065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H12">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I12">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J12">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.74143131932286</v>
+        <v>403.6231896666666</v>
       </c>
       <c r="N12">
-        <v>1.74143131932286</v>
+        <v>1210.869569</v>
       </c>
       <c r="O12">
-        <v>0.003555690904079586</v>
+        <v>0.7847066552664699</v>
       </c>
       <c r="P12">
-        <v>0.003555690904079586</v>
+        <v>0.7847066552664699</v>
       </c>
       <c r="Q12">
-        <v>14.36381541775521</v>
+        <v>17858.35794153612</v>
       </c>
       <c r="R12">
-        <v>14.36381541775521</v>
+        <v>160725.2214738251</v>
       </c>
       <c r="S12">
-        <v>0.0005691185462029073</v>
+        <v>0.6512756169343455</v>
       </c>
       <c r="T12">
-        <v>0.0005691185462029073</v>
+        <v>0.6512756169343453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H13">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I13">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J13">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.0679076944593</v>
+        <v>1.104487666666667</v>
       </c>
       <c r="N13">
-        <v>35.0679076944593</v>
+        <v>3.313463</v>
       </c>
       <c r="O13">
-        <v>0.071602387662797</v>
+        <v>0.002147296896912275</v>
       </c>
       <c r="P13">
-        <v>0.071602387662797</v>
+        <v>0.002147296896912274</v>
       </c>
       <c r="Q13">
-        <v>289.2499678976451</v>
+        <v>48.86819339997478</v>
       </c>
       <c r="R13">
-        <v>289.2499678976451</v>
+        <v>439.813740599773</v>
       </c>
       <c r="S13">
-        <v>0.01146057063749654</v>
+        <v>0.00178217184968675</v>
       </c>
       <c r="T13">
-        <v>0.01146057063749654</v>
+        <v>0.001782171849686749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>8.24828131800251</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H14">
-        <v>8.24828131800251</v>
+        <v>1.150786</v>
       </c>
       <c r="I14">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532276</v>
       </c>
       <c r="J14">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532274</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>60.5443959869492</v>
+        <v>1.922400333333333</v>
       </c>
       <c r="N14">
-        <v>60.5443959869492</v>
+        <v>5.767201</v>
       </c>
       <c r="O14">
-        <v>0.1236208145076295</v>
+        <v>0.003737447139494048</v>
       </c>
       <c r="P14">
-        <v>0.1236208145076295</v>
+        <v>0.003737447139494047</v>
       </c>
       <c r="Q14">
-        <v>499.3872103288992</v>
+        <v>0.7374237966651112</v>
       </c>
       <c r="R14">
-        <v>499.3872103288992</v>
+        <v>6.636814169986001</v>
       </c>
       <c r="S14">
-        <v>0.01978656191748288</v>
+        <v>2.68930738026089E-05</v>
       </c>
       <c r="T14">
-        <v>0.01978656191748288</v>
+        <v>2.689307380260889E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>8.24828131800251</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H15">
-        <v>8.24828131800251</v>
+        <v>1.150786</v>
       </c>
       <c r="I15">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532276</v>
       </c>
       <c r="J15">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532274</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>391.480334221702</v>
+        <v>0.1491063333333333</v>
       </c>
       <c r="N15">
-        <v>391.480334221702</v>
+        <v>0.447319</v>
       </c>
       <c r="O15">
-        <v>0.7993327374285436</v>
+        <v>0.0002898860499211555</v>
       </c>
       <c r="P15">
-        <v>0.7993327374285436</v>
+        <v>0.0002898860499211555</v>
       </c>
       <c r="Q15">
-        <v>3229.039927126243</v>
+        <v>0.05719649363711111</v>
       </c>
       <c r="R15">
-        <v>3229.039927126243</v>
+        <v>0.514768442734</v>
       </c>
       <c r="S15">
-        <v>0.1279399975222202</v>
+        <v>2.085896239841339E-06</v>
       </c>
       <c r="T15">
-        <v>0.1279399975222202</v>
+        <v>2.085896239841339E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1408,49 +1408,607 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>8.24828131800251</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H16">
-        <v>8.24828131800251</v>
+        <v>1.150786</v>
       </c>
       <c r="I16">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532276</v>
       </c>
       <c r="J16">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532274</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.924845795980196</v>
+        <v>41.38050366666666</v>
       </c>
       <c r="N16">
-        <v>0.924845795980196</v>
+        <v>124.141511</v>
       </c>
       <c r="O16">
-        <v>0.001888369496950197</v>
+        <v>0.08045017594833591</v>
       </c>
       <c r="P16">
-        <v>0.001888369496950197</v>
+        <v>0.08045017594833591</v>
       </c>
       <c r="Q16">
-        <v>7.628388301016612</v>
+        <v>15.87336809751622</v>
       </c>
       <c r="R16">
-        <v>7.628388301016612</v>
+        <v>142.860312877646</v>
       </c>
       <c r="S16">
-        <v>0.0003022495857458134</v>
+        <v>0.0005788851155509204</v>
       </c>
       <c r="T16">
-        <v>0.0003022495857458134</v>
+        <v>0.0005788851155509203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.150786</v>
+      </c>
+      <c r="I17">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J17">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>66.18219133333334</v>
+      </c>
+      <c r="N17">
+        <v>198.546574</v>
+      </c>
+      <c r="O17">
+        <v>0.1286685386988668</v>
+      </c>
+      <c r="P17">
+        <v>0.1286685386988668</v>
+      </c>
+      <c r="Q17">
+        <v>25.38717974524045</v>
+      </c>
+      <c r="R17">
+        <v>228.484617707164</v>
+      </c>
+      <c r="S17">
+        <v>0.000925843865652879</v>
+      </c>
+      <c r="T17">
+        <v>0.0009258438656528788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.150786</v>
+      </c>
+      <c r="I18">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J18">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>403.6231896666666</v>
+      </c>
+      <c r="N18">
+        <v>1210.869569</v>
+      </c>
+      <c r="O18">
+        <v>0.7847066552664699</v>
+      </c>
+      <c r="P18">
+        <v>0.7847066552664699</v>
+      </c>
+      <c r="Q18">
+        <v>154.8279719812482</v>
+      </c>
+      <c r="R18">
+        <v>1393.451747831234</v>
+      </c>
+      <c r="S18">
+        <v>0.005646414037667532</v>
+      </c>
+      <c r="T18">
+        <v>0.00564641403766753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.150786</v>
+      </c>
+      <c r="I19">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J19">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.104487666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.313463</v>
+      </c>
+      <c r="O19">
+        <v>0.002147296896912275</v>
+      </c>
+      <c r="P19">
+        <v>0.002147296896912274</v>
+      </c>
+      <c r="Q19">
+        <v>0.4236763146575556</v>
+      </c>
+      <c r="R19">
+        <v>3.813086831918</v>
+      </c>
+      <c r="S19">
+        <v>1.545103161849464E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.545103161849464E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H20">
+        <v>24.941277</v>
+      </c>
+      <c r="I20">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J20">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.922400333333333</v>
+      </c>
+      <c r="N20">
+        <v>5.767201</v>
+      </c>
+      <c r="O20">
+        <v>0.003737447139494048</v>
+      </c>
+      <c r="P20">
+        <v>0.003737447139494047</v>
+      </c>
+      <c r="Q20">
+        <v>15.982373072853</v>
+      </c>
+      <c r="R20">
+        <v>143.841357655677</v>
+      </c>
+      <c r="S20">
+        <v>0.0005828604128763399</v>
+      </c>
+      <c r="T20">
+        <v>0.0005828604128763398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H21">
+        <v>24.941277</v>
+      </c>
+      <c r="I21">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J21">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1491063333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.447319</v>
+      </c>
+      <c r="O21">
+        <v>0.0002898860499211555</v>
+      </c>
+      <c r="P21">
+        <v>0.0002898860499211555</v>
+      </c>
+      <c r="Q21">
+        <v>1.239634120707</v>
+      </c>
+      <c r="R21">
+        <v>11.156707086363</v>
+      </c>
+      <c r="S21">
+        <v>4.520815852047319E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.520815852047319E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H22">
+        <v>24.941277</v>
+      </c>
+      <c r="I22">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J22">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>41.38050366666666</v>
+      </c>
+      <c r="N22">
+        <v>124.141511</v>
+      </c>
+      <c r="O22">
+        <v>0.08045017594833591</v>
+      </c>
+      <c r="P22">
+        <v>0.08045017594833591</v>
+      </c>
+      <c r="Q22">
+        <v>344.0275347832829</v>
+      </c>
+      <c r="R22">
+        <v>3096.247813049547</v>
+      </c>
+      <c r="S22">
+        <v>0.01254632400648992</v>
+      </c>
+      <c r="T22">
+        <v>0.01254632400648992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H23">
+        <v>24.941277</v>
+      </c>
+      <c r="I23">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J23">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>66.18219133333334</v>
+      </c>
+      <c r="N23">
+        <v>198.546574</v>
+      </c>
+      <c r="O23">
+        <v>0.1286685386988668</v>
+      </c>
+      <c r="P23">
+        <v>0.1286685386988668</v>
+      </c>
+      <c r="Q23">
+        <v>550.222788837222</v>
+      </c>
+      <c r="R23">
+        <v>4952.005099534997</v>
+      </c>
+      <c r="S23">
+        <v>0.02006604904126331</v>
+      </c>
+      <c r="T23">
+        <v>0.0200660490412633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H24">
+        <v>24.941277</v>
+      </c>
+      <c r="I24">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J24">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>403.6231896666666</v>
+      </c>
+      <c r="N24">
+        <v>1210.869569</v>
+      </c>
+      <c r="O24">
+        <v>0.7847066552664699</v>
+      </c>
+      <c r="P24">
+        <v>0.7847066552664699</v>
+      </c>
+      <c r="Q24">
+        <v>3355.625925699956</v>
+      </c>
+      <c r="R24">
+        <v>30200.63333129961</v>
+      </c>
+      <c r="S24">
+        <v>0.1223761642652538</v>
+      </c>
+      <c r="T24">
+        <v>0.1223761642652537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H25">
+        <v>24.941277</v>
+      </c>
+      <c r="I25">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J25">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.104487666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.313463</v>
+      </c>
+      <c r="O25">
+        <v>0.002147296896912275</v>
+      </c>
+      <c r="P25">
+        <v>0.002147296896912274</v>
+      </c>
+      <c r="Q25">
+        <v>9.182444279139</v>
+      </c>
+      <c r="R25">
+        <v>82.64199851225099</v>
+      </c>
+      <c r="S25">
+        <v>0.0003348741291018774</v>
+      </c>
+      <c r="T25">
+        <v>0.0003348741291018773</v>
       </c>
     </row>
   </sheetData>
